--- a/realme/April/Others/Request for Delete Retailer ID of Natore Dealer.xlsx
+++ b/realme/April/Others/Request for Delete Retailer ID of Natore Dealer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Mugdho Corporation( Natore Dealer)</t>
   </si>
@@ -88,13 +88,16 @@
   </si>
   <si>
     <t>RE Rajshahi (Joupurhat Dealer)</t>
+  </si>
+  <si>
+    <t>Arham Electronics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,12 +176,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,6 +189,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -232,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +275,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,14 +486,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -488,16 +501,16 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -525,7 +538,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -536,7 +549,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -547,7 +560,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -558,7 +571,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -569,148 +582,159 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>19</v>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -722,24 +746,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
